--- a/nss/Survey_NSS/cluster_result_0904.xlsx
+++ b/nss/Survey_NSS/cluster_result_0904.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/xweng_worldbank_org/Documents/7_Housing/survey_all/Housing_git/nss/Survey_NSS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb500886\OneDrive - WBG\7_Housing\survey_all\Housing_git\nss\Survey_NSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{7B04AD1F-C0BE-44D1-809D-6E5E532029B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BE6FA5E1-B319-4BD1-8ACF-94973604D61C}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{7B04AD1F-C0BE-44D1-809D-6E5E532029B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E774EE23-4A68-4818-BA74-F7574CA0C2A4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F12C5EBF-E02F-4CAD-9F91-6444B0844444}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F12C5EBF-E02F-4CAD-9F91-6444B0844444}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0904" sheetId="1" r:id="rId1"/>
+    <sheet name="0909" sheetId="2" r:id="rId2"/>
+    <sheet name="0911" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>med(hh_umce)</t>
   </si>
@@ -98,12 +102,138 @@
   <si>
     <t>SD delta between consumption-quantiles group and k-means group</t>
   </si>
+  <si>
+    <t>hse_quali</t>
+  </si>
+  <si>
+    <t>ty_grp</t>
+  </si>
+  <si>
+    <t>mean(hq_slum)</t>
+  </si>
+  <si>
+    <t>mean(legal_~t)</t>
+  </si>
+  <si>
+    <t>mean(in_ppl~a)</t>
+  </si>
+  <si>
+    <t>0-0-0</t>
+  </si>
+  <si>
+    <t>0-0-100</t>
+  </si>
+  <si>
+    <t>0-1-0</t>
+  </si>
+  <si>
+    <t>0-1-100</t>
+  </si>
+  <si>
+    <t>1-0-0</t>
+  </si>
+  <si>
+    <t>1-0-100</t>
+  </si>
+  <si>
+    <t>1-1-100</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>high_1</t>
+  </si>
+  <si>
+    <t>high_2</t>
+  </si>
+  <si>
+    <t>low_1</t>
+  </si>
+  <si>
+    <t>low_2</t>
+  </si>
+  <si>
+    <t>med_2</t>
+  </si>
+  <si>
+    <t>med_1</t>
+  </si>
+  <si>
+    <t>med_3</t>
+  </si>
+  <si>
+    <t>med_4</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the cross tab cluster results. </t>
+  </si>
+  <si>
+    <t>gr6</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>roof</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>san_f</t>
+  </si>
+  <si>
+    <t>san_pit</t>
+  </si>
+  <si>
+    <t>h20_pipe</t>
+  </si>
+  <si>
+    <t>h20_pump</t>
+  </si>
+  <si>
+    <t>size_big</t>
+  </si>
+  <si>
+    <t>sep_kitchen</t>
+  </si>
+  <si>
+    <t>hq_cluster</t>
+  </si>
+  <si>
+    <t>Yellow: good service indicator</t>
+  </si>
+  <si>
+    <t>Orange: similar group</t>
+  </si>
+  <si>
+    <t>Housing quality indicator by cluster</t>
+  </si>
+  <si>
+    <t>mean(legal_rent)</t>
+  </si>
+  <si>
+    <t>med(cost_rent)</t>
+  </si>
+  <si>
+    <t>mean(in_p/area)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +249,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +273,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -174,11 +328,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -243,6 +416,4483 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Housin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>g quality, renter, and overcrowding</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0909'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean(hq_slum)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0909'!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>low_2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>med_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>med_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>med_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>high_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>med_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>high_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0909'!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15D5-4453-81CA-5224CBD99800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0909'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean(legal_~t)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0909'!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>low_2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>med_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>med_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>med_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>high_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>med_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>high_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0909'!$G$4:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15D5-4453-81CA-5224CBD99800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0909'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean(in_ppl~a)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0909'!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>low_2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>med_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>med_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>med_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>high_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>med_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>high_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0909'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>222.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15D5-4453-81CA-5224CBD99800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="313291376"/>
+        <c:axId val="1718181152"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0909'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>med(hh_umce)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0909'!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>low_2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>med_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>med_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>med_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>high_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>med_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>high_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0909'!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2531.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3166.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3083.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4196.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15D5-4453-81CA-5224CBD99800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0909'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'0909'!$D$4:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>low_2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low_1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>med_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>med_3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>med_2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>high_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>med_1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>high_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'0909'!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-15D5-4453-81CA-5224CBD99800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="313295776"/>
+        <c:axId val="1718183648"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="1718181152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Other</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mean%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313291376"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="313291376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Housing Quality</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Group</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718181152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1718183648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>UMCE  and Rent (p50)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313295776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="313295776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1718183648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Housing quality indicator by cluster</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>floor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roof</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>san_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>san_pit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>h20_pipe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sep_kitchen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B6CB-4044-89B2-18BB8C6F9296}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1535506127"/>
+        <c:axId val="721720959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1535506127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Housing Quality</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="721720959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="721720959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Quality Indicators (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1535506127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Housing quality, renter, and overcrowding</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>med(hh_umce)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$P$3:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3105.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E4F-45CD-A375-49F1283373DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>med(cost_rent)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$R$3:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E4F-45CD-A375-49F1283373DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean(in_p/area)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$S$3:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3E4F-45CD-A375-49F1283373DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1545306223"/>
+        <c:axId val="834100015"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean(hq_slum)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$O$3:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E4F-45CD-A375-49F1283373DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0911'!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean(legal_rent)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'0911'!$Q$3:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E4F-45CD-A375-49F1283373DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="975847887"/>
+        <c:axId val="723949055"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1545306223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Housing Quality</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="834100015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="834100015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>UMCE and Retn (p50) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545306223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="723949055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Other</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mena )</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="975847887"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="975847887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723949055"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCA2C00-82D6-4FEA-865D-BDCCA8ED1FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561973</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3769E9CC-5E5A-4AEE-B322-06FE26182B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777AEC4A-ABD4-4837-9B2D-9CE6A177798A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{827D8365-03B1-430F-BA13-4E7FB9F8B71E}" name="Table1" displayName="Table1" ref="A2:L7" totalsRowShown="0">
   <autoFilter ref="A2:L7" xr:uid="{1CC4A7D2-EA4C-42E4-8777-3F8F8DB303D7}"/>
@@ -255,7 +4905,7 @@
     <tableColumn id="3" xr3:uid="{5C741D2B-F776-4982-9359-AF5221693E1C}" name="concrete house"/>
     <tableColumn id="4" xr3:uid="{7FDE9770-0D02-4BD5-8F0D-0D4B49F71E37}" name="sanitation"/>
     <tableColumn id="5" xr3:uid="{B36CBAE2-6FF9-4B50-AA8F-C1EE59181052}" name="water"/>
-    <tableColumn id="6" xr3:uid="{A86F2EDE-1D26-4FC9-B391-A71B7271D545}" name="overcrowding" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{A86F2EDE-1D26-4FC9-B391-A71B7271D545}" name="overcrowding" dataDxfId="4">
       <calculatedColumnFormula>1-Table1[[#This Row],[overcrowding——not]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{64F55404-6F37-403A-ADD1-BC1D221A3FCD}" name="travel"/>
@@ -282,8 +4932,8 @@
     <tableColumn id="4" xr3:uid="{3BC5E729-011A-4B6B-97E7-80D52A025AE1}" name="sanitation"/>
     <tableColumn id="5" xr3:uid="{BB49C06A-2A5E-46AF-B742-CF3299AF5E45}" name="water"/>
     <tableColumn id="6" xr3:uid="{2D3AC7FA-D7F2-4CDB-A6B8-CAB9748A5C3C}" name="overcrowd"/>
-    <tableColumn id="7" xr3:uid="{CD44792E-06A8-4FFA-9B58-B940E5D11647}" name="travel" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{77EF7512-2AEC-4495-9451-A0EC1D134A62}" name="order" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{CD44792E-06A8-4FFA-9B58-B940E5D11647}" name="travel" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{77EF7512-2AEC-4495-9451-A0EC1D134A62}" name="order" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -303,6 +4953,44 @@
     <tableColumn id="5" xr3:uid="{E878653F-FAFE-4E3F-9BB0-C89B03250488}" name="water"/>
     <tableColumn id="6" xr3:uid="{EF4D7127-B0A9-446E-B578-3BB09F49DE6D}" name="overcrowd"/>
     <tableColumn id="7" xr3:uid="{9B80A700-BAB6-426F-9FFC-BD042F50D051}" name="travel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C272F544-3A5F-4B83-BA70-2AC8AA4C1215}" name="Table15" displayName="Table15" ref="A2:K8" totalsRowShown="0">
+  <autoFilter ref="A2:K8" xr:uid="{E63AD141-5345-4233-A63C-4B857BFDEB6E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K8">
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{382AF39A-2979-45E3-9F4F-BEEAB1159210}" name="gr6"/>
+    <tableColumn id="12" xr3:uid="{8A3B9FE1-0320-48E1-9AC6-80F68EB3FBE1}" name="hq_cluster"/>
+    <tableColumn id="2" xr3:uid="{34678401-4780-4F6A-871C-A701C41A6391}" name="floor"/>
+    <tableColumn id="3" xr3:uid="{24E87A0F-8E2E-4C5C-A466-DF7E0706EC1F}" name="roof"/>
+    <tableColumn id="4" xr3:uid="{226DA474-4ADB-4A3C-8609-821C88B2BCCB}" name="wall"/>
+    <tableColumn id="5" xr3:uid="{76D2E490-B43C-48FA-AE81-1F0E973D4E45}" name="san_f" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0560D320-5053-42B5-9404-DA1472A7E9B0}" name="san_pit"/>
+    <tableColumn id="7" xr3:uid="{5288330E-47E7-4F0A-980D-AFBAA5B4116F}" name="h20_pipe" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{DE7BB25F-5A32-4B4C-B763-840BEE30D0F9}" name="h20_pump"/>
+    <tableColumn id="9" xr3:uid="{7CAB0BE2-7498-4277-A23E-C89310B76632}" name="size_big"/>
+    <tableColumn id="10" xr3:uid="{D6DAF79B-805F-41E9-BB7E-5B052BD62A30}" name="sep_kitchen"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC86F25F-FFF3-4A1E-9E40-EB8F5D30DEAB}" name="Table5" displayName="Table5" ref="N2:S8" totalsRowShown="0">
+  <autoFilter ref="N2:S8" xr:uid="{850D9216-FB12-4A4E-A564-384BF7005B7D}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E96AA2DA-9C27-476C-BF2D-92B80D66BDF8}" name="hq_cluster"/>
+    <tableColumn id="2" xr3:uid="{66A34B51-D0B2-47C0-BAF8-69DF61847224}" name="mean(hq_slum)"/>
+    <tableColumn id="3" xr3:uid="{C8632C75-164F-4B52-8AD4-300F99EE834B}" name="med(hh_umce)"/>
+    <tableColumn id="4" xr3:uid="{D4A3B719-E021-4A74-8951-C0164226EB82}" name="mean(legal_rent)"/>
+    <tableColumn id="5" xr3:uid="{DBD2B2F7-1B7D-450C-A6EF-BD58C83F1EAB}" name="med(cost_rent)"/>
+    <tableColumn id="6" xr3:uid="{FAB2D305-5C34-462E-86A1-A005538388F7}" name="mean(in_p/area)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07059504-2DB5-44F8-8A84-E1B173EF54DF}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +5308,7 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="7" max="8" width="11.453125" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1796875" customWidth="1"/>
     <col min="11" max="11" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1185,124 +5873,116 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C28">
-        <f>C20-C12</f>
+        <f t="shared" ref="C28:G32" si="0">C20-C12</f>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="D28">
-        <f>D20-D12</f>
+        <f t="shared" si="0"/>
         <v>-7.0000000000000034E-2</v>
       </c>
       <c r="E28">
-        <f>E20-E12</f>
+        <f t="shared" si="0"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="F28">
-        <f>F20-F12</f>
+        <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
       <c r="G28">
-        <f>G20-G12</f>
+        <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C29">
-        <f>C21-C13</f>
+        <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="D29">
-        <f>D21-D13</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="E29">
-        <f>E21-E13</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="F29">
-        <f>F21-F13</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G29">
-        <f>G21-G13</f>
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C30">
-        <f>C22-C14</f>
+        <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
       <c r="D30">
-        <f>D22-D14</f>
+        <f t="shared" si="0"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="E30">
-        <f>E22-E14</f>
+        <f t="shared" si="0"/>
         <v>-9.9999999999999534E-3</v>
       </c>
       <c r="F30">
-        <f>F22-F14</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G30">
-        <f>G22-G14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C31">
-        <f>C23-C15</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
       <c r="D31">
-        <f>D23-D15</f>
+        <f t="shared" si="0"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="E31">
-        <f>E23-E15</f>
+        <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="F31">
-        <f>F23-F15</f>
+        <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
       <c r="G31">
-        <f>G23-G15</f>
+        <f t="shared" si="0"/>
         <v>0.42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C32">
-        <f>C24-C16</f>
+        <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
       <c r="D32">
-        <f>D24-D16</f>
+        <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
       <c r="E32">
-        <f>E24-E16</f>
+        <f t="shared" si="0"/>
         <v>-9.9999999999999534E-3</v>
       </c>
       <c r="F32">
-        <f>F24-F16</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="G32">
-        <f>G24-G16</f>
+        <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C28:G32">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1313,6 +5993,14 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1320,6 +6008,756 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35BA919-05B6-42D6-AC1F-33B740201E06}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>0.31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <f>B4*100</f>
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>2361</v>
+      </c>
+      <c r="G4">
+        <f>C4*100</f>
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>77.78</v>
+      </c>
+      <c r="I4">
+        <v>1500</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>0.11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="0">B5*100</f>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2531.25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G11" si="1">C5*100</f>
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>175.47</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.22</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>3166.6</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>84.95</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3016</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="H7">
+        <v>182.16</v>
+      </c>
+      <c r="I7">
+        <v>3000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.09</v>
+      </c>
+      <c r="C8">
+        <v>0.52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>3083.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>97.25</v>
+      </c>
+      <c r="I8">
+        <v>2000</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>0.06</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3975</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>108.05</v>
+      </c>
+      <c r="I9">
+        <v>2700</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>0.03</v>
+      </c>
+      <c r="C10">
+        <v>0.15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <f>B10*100</f>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3250</v>
+      </c>
+      <c r="G10">
+        <f>C10*100</f>
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>220.39</v>
+      </c>
+      <c r="I10">
+        <v>3500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>0.02</v>
+      </c>
+      <c r="C11">
+        <v>0.23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4196.33</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>222.36</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC659F5-6D64-4473-AE54-9184EFB0B97D}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="17" max="17" width="17.6328125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>50.1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>51.02</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>13.47</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.27</v>
+      </c>
+      <c r="P3">
+        <v>2000</v>
+      </c>
+      <c r="Q3">
+        <v>0.19</v>
+      </c>
+      <c r="R3">
+        <v>900</v>
+      </c>
+      <c r="S3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>81.87</v>
+      </c>
+      <c r="D4">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="E4">
+        <v>90.33</v>
+      </c>
+      <c r="F4" s="8">
+        <v>73.2</v>
+      </c>
+      <c r="G4">
+        <v>4.63</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4">
+        <v>3000</v>
+      </c>
+      <c r="Q4">
+        <v>0.53</v>
+      </c>
+      <c r="R4">
+        <v>1500</v>
+      </c>
+      <c r="S4">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>93.96</v>
+      </c>
+      <c r="D5" s="9">
+        <v>70.31</v>
+      </c>
+      <c r="E5" s="9">
+        <v>93.37</v>
+      </c>
+      <c r="F5" s="9">
+        <v>86.72</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.81</v>
+      </c>
+      <c r="H5" s="9">
+        <v>43.46</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.18</v>
+      </c>
+      <c r="P5">
+        <v>3075</v>
+      </c>
+      <c r="Q5">
+        <v>0.54</v>
+      </c>
+      <c r="R5">
+        <v>1500</v>
+      </c>
+      <c r="S5">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>90.98</v>
+      </c>
+      <c r="D6" s="9">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="E6" s="9">
+        <v>90.27</v>
+      </c>
+      <c r="F6" s="9">
+        <v>79.69</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.01</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="K6" s="9">
+        <v>95.54</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.02</v>
+      </c>
+      <c r="P6">
+        <v>3105.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.15</v>
+      </c>
+      <c r="R6">
+        <v>3000</v>
+      </c>
+      <c r="S6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>95.79</v>
+      </c>
+      <c r="D7">
+        <v>76.83</v>
+      </c>
+      <c r="E7">
+        <v>93.63</v>
+      </c>
+      <c r="F7" s="8">
+        <v>85.64</v>
+      </c>
+      <c r="G7">
+        <v>3.55</v>
+      </c>
+      <c r="H7" s="8">
+        <v>62.88</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>99.68</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.08</v>
+      </c>
+      <c r="P7">
+        <v>3375</v>
+      </c>
+      <c r="Q7">
+        <v>0.44</v>
+      </c>
+      <c r="R7">
+        <v>2800</v>
+      </c>
+      <c r="S7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>95.59</v>
+      </c>
+      <c r="D8">
+        <v>81.13</v>
+      </c>
+      <c r="E8">
+        <v>93.08</v>
+      </c>
+      <c r="F8" s="8">
+        <v>85.03</v>
+      </c>
+      <c r="G8">
+        <v>3.37</v>
+      </c>
+      <c r="H8" s="8">
+        <v>72.02</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>93.15</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.03</v>
+      </c>
+      <c r="P8">
+        <v>3750</v>
+      </c>
+      <c r="Q8">
+        <v>0.21</v>
+      </c>
+      <c r="R8">
+        <v>4000</v>
+      </c>
+      <c r="S8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C10" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1592,16 +7030,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0AF556A-D1FC-4797-BEDA-97BBC28DEE97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/nss/Survey_NSS/cluster_result_0904.xlsx
+++ b/nss/Survey_NSS/cluster_result_0904.xlsx
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="169" documentId="8_{7B04AD1F-C0BE-44D1-809D-6E5E532029B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E774EE23-4A68-4818-BA74-F7574CA0C2A4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F12C5EBF-E02F-4CAD-9F91-6444B0844444}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F12C5EBF-E02F-4CAD-9F91-6444B0844444}"/>
   </bookViews>
   <sheets>
     <sheet name="0904" sheetId="1" r:id="rId1"/>
     <sheet name="0909" sheetId="2" r:id="rId2"/>
     <sheet name="0911" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3019,6 +3019,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="723949055"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5295,29 +5296,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07059504-2DB5-44F8-8A84-E1B173EF54DF}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="7" max="8" width="11.453125" customWidth="1"/>
-    <col min="10" max="10" width="5.1796875" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5550,12 +5551,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5734,7 +5735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5849,12 +5850,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" ref="C28:G32" si="0">C20-C12</f>
         <v>-7.0000000000000007E-2</v>
@@ -5893,7 +5894,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="0"/>
         <v>4.0000000000000036E-2</v>
@@ -5915,7 +5916,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="0"/>
         <v>0.36</v>
@@ -5937,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0.42</v>
@@ -5959,7 +5960,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="0"/>
         <v>0.43</v>
@@ -6020,25 +6021,25 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -6308,7 +6309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -6350,27 +6351,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC659F5-6D64-4473-AE54-9184EFB0B97D}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" customWidth="1"/>
-    <col min="17" max="17" width="17.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6529,7 +6530,7 @@
         <v>73.33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6741,12 +6742,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>59</v>
       </c>
@@ -6763,6 +6764,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD604C3B73AE9943B737720A48E3AF7C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd293e4048182cf0cbc24ca37d962123">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa" xmlns:ns4="9c83b91e-5ffe-420f-9ed1-9dac5903eaec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a7092592117d1a74ae1fb4e50ab3de0d" ns3:_="" ns4:_="">
     <xsd:import namespace="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
@@ -6985,22 +7001,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0AF556A-D1FC-4797-BEDA-97BBC28DEE97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1405695A-E799-4DFE-BC89-88A907557CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2AB3B54-901A-440E-8ED6-8A5032059211}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7017,29 +7043,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1405695A-E799-4DFE-BC89-88A907557CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0AF556A-D1FC-4797-BEDA-97BBC28DEE97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>